--- a/LapshaApp_TechDoc/Таблица экранов.xlsx
+++ b/LapshaApp_TechDoc/Таблица экранов.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valer\Desktop\Progr\LapshaApp TechDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valer\Desktop\Progr\Lapsha\LapshaApp_TechDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B45BEC1-9190-49A5-A9F0-66C1E05E87DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3D6820-150D-454B-AFB8-2BF15334DEFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="3708" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -211,6 +211,10 @@
 Carb
 Callories
 ProductWeight</t>
+  </si>
+  <si>
+    <t>Темный оранжевый - #fe9224
+Светло оранжевый - #ffb640</t>
   </si>
 </sst>
 </file>
@@ -314,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -347,6 +351,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,7 +647,7 @@
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="88" zoomScaleNormal="100" zoomScaleSheetLayoutView="88" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,7 +660,7 @@
     <col min="6" max="6" width="36.33203125" customWidth="1"/>
     <col min="7" max="7" width="27.109375" customWidth="1"/>
     <col min="8" max="8" width="28.5546875" customWidth="1"/>
-    <col min="9" max="9" width="24.44140625" customWidth="1"/>
+    <col min="9" max="9" width="80.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -702,7 +709,9 @@
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="I2" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="246" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
